--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3633.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3633.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Martin James Guptill</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2911</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2914</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2933</t>
+          <t>2933</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2938</t>
+          <t>2938</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2939</t>
+          <t>2939</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2941</t>
+          <t>2941</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2942</t>
+          <t>2942</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2943</t>
+          <t>2943</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,7 +973,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>06/03/2009</t>
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2944</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2945</t>
+          <t>2945</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2946</t>
+          <t>2946</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2947</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3011</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3013</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3022</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3026</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3029</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3033</t>
+          <t>3033</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3034</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3047</t>
+          <t>3047</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3051</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3054</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3079</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3081</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3096</t>
+          <t>3096</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3099</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3101</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3103</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3105</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3161</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3162</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3204</t>
+          <t>3204</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3206</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2320,7 +2384,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3208</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2372,7 +2436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3210</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2424,7 +2488,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3212</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2476,7 +2540,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3220</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2580,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -2524,7 +2587,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3223</t>
+          <t>3223</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2576,7 +2639,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3225</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2628,7 +2691,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3228</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2680,7 +2743,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3230</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2732,7 +2795,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3232</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2784,7 +2847,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3236</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2836,7 +2899,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3242</t>
+          <t>3242</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2888,7 +2951,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3252</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2940,7 +3003,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3258</t>
+          <t>3258</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2992,7 +3055,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3264</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3044,7 +3107,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3272</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3096,7 +3159,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3279</t>
+          <t>3279</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3148,7 +3211,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3281</t>
+          <t>3281</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3200,7 +3263,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3340</t>
+          <t>3340</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3252,7 +3315,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3342</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3304,7 +3367,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3366</t>
+          <t>3366</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3356,7 +3419,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3368</t>
+          <t>3368</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3408,7 +3471,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3370</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3460,7 +3523,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3385</t>
+          <t>3385</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3512,7 +3575,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3388</t>
+          <t>3388</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3564,7 +3627,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3390</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3616,7 +3679,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3668,7 +3731,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3720,7 +3783,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3772,7 +3835,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3824,7 +3887,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3876,7 +3939,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3464</t>
+          <t>3464</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3928,7 +3991,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3466</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3980,7 +4043,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3469</t>
+          <t>3469</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4032,7 +4095,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4084,7 +4147,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4136,7 +4199,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4188,7 +4251,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4240,7 +4303,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3508</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4292,7 +4355,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3511</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4344,7 +4407,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3515</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4396,7 +4459,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4448,7 +4511,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4500,7 +4563,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3597</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4552,7 +4615,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4604,7 +4667,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4656,7 +4719,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4708,7 +4771,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4760,7 +4823,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4812,7 +4875,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4864,7 +4927,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3685</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4916,7 +4979,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4956,7 +5019,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -4964,7 +5026,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3687</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5016,7 +5078,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3717</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5068,7 +5130,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3719</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5120,7 +5182,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3720</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5172,7 +5234,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3723</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5224,7 +5286,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3726</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5276,7 +5338,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3729</t>
+          <t>3729</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5328,7 +5390,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3734</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5380,7 +5442,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5432,7 +5494,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5484,7 +5546,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5536,7 +5598,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3745</t>
+          <t>3745</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5588,7 +5650,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3747</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5640,7 +5702,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5692,7 +5754,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5744,7 +5806,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5796,7 +5858,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5848,7 +5910,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5900,7 +5962,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5952,7 +6014,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6004,7 +6066,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3794</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6056,7 +6118,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6108,7 +6170,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6160,7 +6222,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6212,7 +6274,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6264,7 +6326,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6316,7 +6378,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6368,7 +6430,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3823</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6420,7 +6482,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3824</t>
+          <t>3824</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6472,7 +6534,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3825</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6524,7 +6586,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3826</t>
+          <t>3826</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6576,7 +6638,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3827</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6628,7 +6690,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3828</t>
+          <t>3828</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6680,7 +6742,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6732,7 +6794,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6784,7 +6846,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6836,7 +6898,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6888,7 +6950,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6940,7 +7002,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6992,7 +7054,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7044,7 +7106,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7096,7 +7158,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7148,7 +7210,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7200,7 +7262,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7252,7 +7314,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7304,7 +7366,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7356,7 +7418,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7408,7 +7470,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7460,7 +7522,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7512,7 +7574,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7564,7 +7626,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7616,7 +7678,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7668,7 +7730,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7720,7 +7782,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7772,7 +7834,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7824,7 +7886,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7876,7 +7938,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7928,7 +7990,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7980,7 +8042,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8032,7 +8094,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8084,7 +8146,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8136,7 +8198,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8188,7 +8250,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8240,7 +8302,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8292,7 +8354,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8344,7 +8406,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8396,7 +8458,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8448,7 +8510,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8500,7 +8562,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8552,7 +8614,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8604,7 +8666,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8656,7 +8718,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8708,7 +8770,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8760,7 +8822,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8812,7 +8874,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8864,7 +8926,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8916,7 +8978,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8968,7 +9030,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -9020,7 +9082,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9072,7 +9134,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9124,7 +9186,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9176,7 +9238,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9228,7 +9290,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9280,7 +9342,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9332,7 +9394,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9384,7 +9446,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9436,7 +9498,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9488,7 +9550,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9540,7 +9602,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9592,7 +9654,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9644,7 +9706,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9696,7 +9758,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9748,7 +9810,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9800,7 +9862,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9852,7 +9914,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9904,7 +9966,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9956,7 +10018,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -10008,7 +10070,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10060,7 +10122,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10112,7 +10174,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10164,7 +10226,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4563</t>
+          <t>4563</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10216,7 +10278,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4566</t>
+          <t>4566</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10268,7 +10330,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4568</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10320,7 +10382,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10372,7 +10434,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10424,7 +10486,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10476,7 +10538,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10528,7 +10590,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10580,7 +10642,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10632,7 +10694,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10684,7 +10746,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10736,7 +10798,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10775,7 +10837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10797,7 +10859,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -10834,7 +10896,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3013</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -10871,7 +10933,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3022</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -10908,7 +10970,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3079</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -10945,7 +11007,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -10982,7 +11044,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3101</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -11019,7 +11081,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -11056,7 +11118,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -11093,7 +11155,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -11130,7 +11192,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -11167,7 +11229,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -11204,7 +11266,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -11230,6 +11292,569 @@
       <c r="G12" t="inlineStr">
         <is>
           <t>2/6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.00%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.39%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.79%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7.27%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.18%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.27%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>16.72%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>31.94%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15.31%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12.63%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3633.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3633.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -985,7 +985,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F88" t="inlineStr">

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3633.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3633.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,6 +972,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>06/03/2009</t>
@@ -2580,6 +2580,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -5019,6 +5020,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -11298,567 +11300,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22.00%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21.39%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>28.79%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7.27%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8.18%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4563</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.98%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4566</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.27%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4568</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>16.72%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>31.94%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>15.31%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>12.63%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.42%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.44%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3633.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3633.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -972,7 +973,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>06/03/2009</t>
@@ -2580,7 +2580,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -5020,7 +5019,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -11300,4 +11298,4987 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2911</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.38%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2933</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2939</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.23%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2941</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2942</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2943</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2944</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2945</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2946</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.26%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2947</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.75%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.52%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3013</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3022</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.81%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3026</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.95%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.05%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3033</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.70%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3034</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3047</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3051</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3054</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3.79%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3079</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.60%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3083</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>37.30%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3096</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3099</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7.11%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3103</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3105</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3161</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3.82%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3162</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3170</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3204</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12.71%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3206</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3208</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5.36%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>9.52%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3212</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>32.00%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3223</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3225</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>15.60%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3228</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3230</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>28.63%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3232</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14.15%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3236</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>54.17%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3242</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>4.85%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3252</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>51.81%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3258</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>18.87%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3264</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4.75%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3272</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>8.50%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3279</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3281</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>17.97%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3340</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>31.90%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3342</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.23%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3370</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3385</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3388</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3390</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3.40%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3422</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3424</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>19.62%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3427</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>4.42%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3429</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3430</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>14.93%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3466</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3469</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1.92%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3476</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>10.42%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3501</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>44.59%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3503</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>52.65%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3504</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>15.02%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3508</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>17.99%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3511</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3515</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3593</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3596</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3597</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.42%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3598</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>16.24%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>35.35%</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>12.50%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5.28%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>3685</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3686</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>5.24%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3687</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3717</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>5.53%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3719</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>3720</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>3723</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>3726</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>3729</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>3734</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>3737</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>3739</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>3743</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>3745</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>18.31%</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>3747</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>20.60%</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>3748</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>14.80%</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>3753</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>11.64%</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>3756</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>17.60%</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3767</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>7.24%</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>3784</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>36.21%</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>60.31%</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>3794</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>11.37%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>3796</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>8.20%</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>3804</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3805</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>12.56%</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>3806</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>15.19%</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>23.67%</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>3823</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>3824</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>49.15%</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>3825</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>3826</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>4</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>8.80%</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3827</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>49.76%</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>3828</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>4.52%</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>41.36%</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>78.81%</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>3870</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>34.69%</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>3879</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>30.94%</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>11.03%</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>23.98%</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>27.69%</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>17.18%</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>3969</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>4.40%</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>3971</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>21.33%</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>8.93%</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>4036</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>12.11%</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>4039</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>15.24%</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>4104</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>56.95%</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>4105</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>17.51%</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>36.90%</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>4137</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>4138</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>4139</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>4146</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>21.08%</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>37.20%</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>4.08%</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>5.35%</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>15.05%</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>50.21%</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>51.53%</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>8.79%</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>53.28%</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>12.74%</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>22.00%</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>21.39%</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>28.79%</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>7.27%</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>8.18%</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2.27%</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>16.72%</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>31.94%</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>15.31%</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>12.63%</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>